--- a/InputData/plcy-ctrl-ctr/BAEPAbCiPC/Bool Are Energy Prices Affected by Chng in Production Costs.xlsx
+++ b/InputData/plcy-ctrl-ctr/BAEPAbCiPC/Bool Are Energy Prices Affected by Chng in Production Costs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipK\InputData\plcy-ctrl-ctr\BAEPAbCiPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\plcy-ctrl-ctr\BAEPAbCiPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_BB1BE6970EC2D95FDDDF3B2EE1C0C17C7D6D4E9A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D97DFEF-6DD8-44C0-9754-C82C07D2B155}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Source:</t>
   </si>
@@ -121,12 +122,15 @@
   </si>
   <si>
     <t>by global markets, so domestic producers' costs are less relevant.</t>
+  </si>
+  <si>
+    <t>HK: government decide the price for electricity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -176,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -184,6 +194,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +474,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -518,6 +531,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -525,13 +554,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -549,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +740,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -718,6 +749,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -951,32 +1000,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66102A21-45B8-41F9-964B-23CCC351D21A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2205C3F4-C694-4925-A104-B59DA1CAF170}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C2233B-8166-4148-B443-F9CBB8509D3E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2205C3F4-C694-4925-A104-B59DA1CAF170}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66102A21-45B8-41F9-964B-23CCC351D21A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C2233B-8166-4148-B443-F9CBB8509D3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>